--- a/Lingyu Zhou/w4/audit_var_codebook_simple.xlsx
+++ b/Lingyu Zhou/w4/audit_var_codebook_simple.xlsx
@@ -562,7 +562,7 @@
     <col min="3" max="3" style="5" width="111.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="50.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
